--- a/app/data/absenteeism_data_2.xlsx
+++ b/app/data/absenteeism_data_2.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44494</v>
+        <v>33245</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eloah Fernandes</t>
+          <t>Clarice Cardoso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,234 +490,234 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>10661.45</v>
+        <v>10540.69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31974</v>
+        <v>92083</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lorena Azevedo</t>
+          <t>Thiago Teixeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>9470.950000000001</v>
+        <v>4632.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>77302</v>
+        <v>41186</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kaique Cardoso</t>
+          <t>Maria Fernanda Barbosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>4372.18</v>
+        <v>10472.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>90334</v>
+        <v>5286</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Maria Oliveira</t>
+          <t>Yago da Paz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45080</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>11605.11</v>
+        <v>11512.55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79921</v>
+        <v>17382</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Levi Moraes</t>
+          <t>Isaac Nogueira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>9786.68</v>
+        <v>6824.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4195</v>
+        <v>66845</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mariane Dias</t>
+          <t>Breno Monteiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>3449.66</v>
+        <v>4881.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34802</v>
+        <v>19973</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lorenzo Melo</t>
+          <t>Bernardo Silveira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>10566.51</v>
+        <v>5045.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>70913</v>
+        <v>80114</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Benício Moreira</t>
+          <t>Erick da Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>4285.52</v>
+        <v>3735.56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>62228</v>
+        <v>4584</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Gabriel Cunha</t>
+          <t>Marcelo Farias</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -729,39 +729,39 @@
         <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G10" t="n">
-        <v>2697.61</v>
+        <v>11009.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>83231</v>
+        <v>32480</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bruna Pereira</t>
+          <t>Elisa Lopes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>4889.29</v>
+        <v>9393.6</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_2.xlsx
+++ b/app/data/absenteeism_data_2.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56144</v>
+        <v>61621</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clarice Moraes</t>
+          <t>Davi Luiz Cunha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,55 +490,55 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>4104.86</v>
+        <v>9858.389999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73907</v>
+        <v>30666</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bernardo Viana</t>
+          <t>Ana Sophia Melo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>3688.06</v>
+        <v>9266.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>76739</v>
+        <v>33770</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>João Lucas Oliveira</t>
+          <t>Lucas Pires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,60 +548,60 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>5480.81</v>
+        <v>2967.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>93933</v>
+        <v>35432</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kaique da Conceição</t>
+          <t>Sr. Erick Pereira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45097</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>3038.7</v>
+        <v>5710.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80196</v>
+        <v>78662</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pedro da Rosa</t>
+          <t>Melissa Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>9944.6</v>
+        <v>5340.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>52337</v>
+        <v>2863</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Antônio Peixoto</t>
+          <t>Ana Laura Carvalho</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45084</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>11224.71</v>
+        <v>5663.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24440</v>
+        <v>17040</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arthur Fernandes</t>
+          <t>Sabrina Correia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>5535.47</v>
+        <v>9853.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1238</v>
+        <v>34754</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arthur Azevedo</t>
+          <t>Juliana Fogaça</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45095</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>12499.96</v>
+        <v>7193.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12601</v>
+        <v>6984</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alexandre da Mata</t>
+          <t>Sr. Gabriel da Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45086</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>5376.27</v>
+        <v>3339.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91604</v>
+        <v>94410</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Eduarda Nunes</t>
+          <t>Luiz Miguel Correia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>4812.81</v>
+        <v>6097.61</v>
       </c>
     </row>
   </sheetData>
